--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2488.178619362534</v>
+        <v>2592.323461408343</v>
       </c>
       <c r="AB2" t="n">
-        <v>3404.435757705473</v>
+        <v>3546.931325138721</v>
       </c>
       <c r="AC2" t="n">
-        <v>3079.52118714553</v>
+        <v>3208.417177616728</v>
       </c>
       <c r="AD2" t="n">
-        <v>2488178.619362534</v>
+        <v>2592323.461408343</v>
       </c>
       <c r="AE2" t="n">
-        <v>3404435.757705473</v>
+        <v>3546931.325138721</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.037384163990855e-06</v>
+        <v>1.753749400287821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.53055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3079521.18714553</v>
+        <v>3208417.177616728</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>847.9614075049464</v>
+        <v>899.9485771818298</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.218207165343</v>
+        <v>1231.349346229314</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.488609849963</v>
+        <v>1113.831092834849</v>
       </c>
       <c r="AD3" t="n">
-        <v>847961.4075049463</v>
+        <v>899948.5771818298</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160218.207165343</v>
+        <v>1231349.346229314</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.941867614524296e-06</v>
+        <v>3.282823550447361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.43472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049488.609849963</v>
+        <v>1113831.092834849</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.3341168230304</v>
+        <v>695.3211969913629</v>
       </c>
       <c r="AB4" t="n">
-        <v>880.2381205354113</v>
+        <v>951.3691371298332</v>
       </c>
       <c r="AC4" t="n">
-        <v>796.2294297334723</v>
+        <v>860.5718019371315</v>
       </c>
       <c r="AD4" t="n">
-        <v>643334.1168230304</v>
+        <v>695321.1969913628</v>
       </c>
       <c r="AE4" t="n">
-        <v>880238.1205354113</v>
+        <v>951369.1371298332</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270399345266443e-06</v>
+        <v>3.838222741763374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>796229.4297334723</v>
+        <v>860571.8019371314</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>563.083579617664</v>
+        <v>604.6562650899668</v>
       </c>
       <c r="AB5" t="n">
-        <v>770.4357951271967</v>
+        <v>827.3173774478431</v>
       </c>
       <c r="AC5" t="n">
-        <v>696.9064841536862</v>
+        <v>748.3593680914522</v>
       </c>
       <c r="AD5" t="n">
-        <v>563083.579617664</v>
+        <v>604656.2650899668</v>
       </c>
       <c r="AE5" t="n">
-        <v>770435.7951271967</v>
+        <v>827317.3774478431</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.44721127140298e-06</v>
+        <v>4.137132075633272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.279166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>696906.4841536862</v>
+        <v>748359.3680914522</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>504.5020203975242</v>
+        <v>556.4037597112851</v>
       </c>
       <c r="AB6" t="n">
-        <v>690.2819213662091</v>
+        <v>761.2961708384333</v>
       </c>
       <c r="AC6" t="n">
-        <v>624.4023836077788</v>
+        <v>688.6391327794991</v>
       </c>
       <c r="AD6" t="n">
-        <v>504502.0203975242</v>
+        <v>556403.7597112851</v>
       </c>
       <c r="AE6" t="n">
-        <v>690281.921366209</v>
+        <v>761296.1708384333</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.556916360887036e-06</v>
+        <v>4.322593972555848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.925000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>624402.3836077788</v>
+        <v>688639.1327794991</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>469.28173846465</v>
+        <v>510.9396752829733</v>
       </c>
       <c r="AB7" t="n">
-        <v>642.091977816474</v>
+        <v>699.0902047897696</v>
       </c>
       <c r="AC7" t="n">
-        <v>580.8116206354199</v>
+        <v>632.3700168238981</v>
       </c>
       <c r="AD7" t="n">
-        <v>469281.73846465</v>
+        <v>510939.6752829733</v>
       </c>
       <c r="AE7" t="n">
-        <v>642091.977816474</v>
+        <v>699090.2047897696</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.63058799677726e-06</v>
+        <v>4.447139528334971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.702777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>580811.6206354199</v>
+        <v>632370.0168238982</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>459.9578604892527</v>
+        <v>501.615797307576</v>
       </c>
       <c r="AB8" t="n">
-        <v>629.3346366300701</v>
+        <v>686.3328636033657</v>
       </c>
       <c r="AC8" t="n">
-        <v>569.2718221868056</v>
+        <v>620.8302183752837</v>
       </c>
       <c r="AD8" t="n">
-        <v>459957.8604892527</v>
+        <v>501615.7973075761</v>
       </c>
       <c r="AE8" t="n">
-        <v>629334.6366300702</v>
+        <v>686332.8636033657</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.649990625635477e-06</v>
+        <v>4.479940635104524e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.645833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>569271.8221868055</v>
+        <v>620830.2183752838</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>461.6387933411207</v>
+        <v>503.2967301594439</v>
       </c>
       <c r="AB9" t="n">
-        <v>631.6345631155195</v>
+        <v>688.6327900888152</v>
       </c>
       <c r="AC9" t="n">
-        <v>571.3522469164508</v>
+        <v>622.9106431049291</v>
       </c>
       <c r="AD9" t="n">
-        <v>461638.7933411207</v>
+        <v>503296.7301594439</v>
       </c>
       <c r="AE9" t="n">
-        <v>631634.5631155196</v>
+        <v>688632.7900888153</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.650136510062983e-06</v>
+        <v>4.480187259967453e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.645833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>571352.2469164508</v>
+        <v>622910.6431049291</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1507.071570284167</v>
+        <v>1587.625520834456</v>
       </c>
       <c r="AB2" t="n">
-        <v>2062.04180976804</v>
+        <v>2172.25927870043</v>
       </c>
       <c r="AC2" t="n">
-        <v>1865.243433537634</v>
+        <v>1964.941901926306</v>
       </c>
       <c r="AD2" t="n">
-        <v>1507071.570284167</v>
+        <v>1587625.520834456</v>
       </c>
       <c r="AE2" t="n">
-        <v>2062041.80976804</v>
+        <v>2172259.278700429</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.365935278256834e-06</v>
+        <v>2.365514431689103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.34583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1865243.433537634</v>
+        <v>1964941.901926306</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.2011504834611</v>
+        <v>709.6539897027619</v>
       </c>
       <c r="AB3" t="n">
-        <v>901.9480959937341</v>
+        <v>970.9798964357569</v>
       </c>
       <c r="AC3" t="n">
-        <v>815.8674356041946</v>
+        <v>878.3109378987714</v>
       </c>
       <c r="AD3" t="n">
-        <v>659201.1504834611</v>
+        <v>709653.9897027619</v>
       </c>
       <c r="AE3" t="n">
-        <v>901948.0959937341</v>
+        <v>970979.8964357569</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.1992901126988e-06</v>
+        <v>3.808710840018262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.530555555555557</v>
       </c>
       <c r="AH3" t="n">
-        <v>815867.4356041946</v>
+        <v>878310.9378987714</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.1104672257242</v>
+        <v>561.387487255144</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.0063310295139</v>
+        <v>768.115126730483</v>
       </c>
       <c r="AC4" t="n">
-        <v>644.9580075067271</v>
+        <v>694.807297091676</v>
       </c>
       <c r="AD4" t="n">
-        <v>521110.4672257242</v>
+        <v>561387.487255144</v>
       </c>
       <c r="AE4" t="n">
-        <v>713006.331029514</v>
+        <v>768115.126730483</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.497951687736947e-06</v>
+        <v>4.325930269950064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.391666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>644958.0075067271</v>
+        <v>694807.297091676</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.972302941708</v>
+        <v>485.3345743171486</v>
       </c>
       <c r="AB5" t="n">
-        <v>608.8307356773798</v>
+        <v>664.056176030998</v>
       </c>
       <c r="AC5" t="n">
-        <v>550.7247847636343</v>
+        <v>600.6795865992955</v>
       </c>
       <c r="AD5" t="n">
-        <v>444972.302941708</v>
+        <v>485334.5743171485</v>
       </c>
       <c r="AE5" t="n">
-        <v>608830.7356773799</v>
+        <v>664056.176030998</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.662751303675127e-06</v>
+        <v>4.61132876286847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.872222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>550724.7847636342</v>
+        <v>600679.5865992955</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>424.0283974319404</v>
+        <v>464.390668807381</v>
       </c>
       <c r="AB6" t="n">
-        <v>580.174360179016</v>
+        <v>635.3998005326343</v>
       </c>
       <c r="AC6" t="n">
-        <v>524.8033335233587</v>
+        <v>574.75813535902</v>
       </c>
       <c r="AD6" t="n">
-        <v>424028.3974319404</v>
+        <v>464390.6688073809</v>
       </c>
       <c r="AE6" t="n">
-        <v>580174.360179016</v>
+        <v>635399.8005326344</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.71330796241074e-06</v>
+        <v>4.698882329835198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.724999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>524803.3335233587</v>
+        <v>574758.13535902</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>425.6946746822022</v>
+        <v>466.0569460576427</v>
       </c>
       <c r="AB7" t="n">
-        <v>582.4542342237883</v>
+        <v>637.6796745774063</v>
       </c>
       <c r="AC7" t="n">
-        <v>526.865619589121</v>
+        <v>576.8204214247824</v>
       </c>
       <c r="AD7" t="n">
-        <v>425694.6746822022</v>
+        <v>466056.9460576428</v>
       </c>
       <c r="AE7" t="n">
-        <v>582454.2342237883</v>
+        <v>637679.6745774064</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.713458877809951e-06</v>
+        <v>4.699143683766442e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.724999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>526865.6195891211</v>
+        <v>576820.4214247824</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>476.2293967722034</v>
+        <v>521.8062248357802</v>
       </c>
       <c r="AB2" t="n">
-        <v>651.598070421921</v>
+        <v>713.9582972862522</v>
       </c>
       <c r="AC2" t="n">
-        <v>589.4104651044875</v>
+        <v>645.8191194400151</v>
       </c>
       <c r="AD2" t="n">
-        <v>476229.3967722034</v>
+        <v>521806.2248357802</v>
       </c>
       <c r="AE2" t="n">
-        <v>651598.070421921</v>
+        <v>713958.2972862523</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425964645061028e-06</v>
+        <v>4.590447151107063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.640277777777776</v>
       </c>
       <c r="AH2" t="n">
-        <v>589410.4651044875</v>
+        <v>645819.1194400152</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.6219571317861</v>
+        <v>396.998168236627</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.418871265622</v>
+        <v>543.1904081044378</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.3276667097655</v>
+        <v>491.3490779274754</v>
       </c>
       <c r="AD3" t="n">
-        <v>360621.9571317861</v>
+        <v>396998.168236627</v>
       </c>
       <c r="AE3" t="n">
-        <v>493418.871265622</v>
+        <v>543190.4081044378</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793075774190074e-06</v>
+        <v>5.285100405960138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.37361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>446327.6667097655</v>
+        <v>491349.0779274754</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.6678570902316</v>
+        <v>788.4770495634742</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.100240978579</v>
+        <v>1078.82908436516</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.556639032596</v>
+        <v>975.8671506994781</v>
       </c>
       <c r="AD2" t="n">
-        <v>731667.8570902316</v>
+        <v>788477.0495634743</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001100.24097858</v>
+        <v>1078829.08436516</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.993321901821772e-06</v>
+        <v>3.631399605873624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.225</v>
       </c>
       <c r="AH2" t="n">
-        <v>905556.639032596</v>
+        <v>975867.1506994781</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.2071907262726</v>
+        <v>453.1084624961419</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.1047960001473</v>
+        <v>619.9629881217829</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.8856716099815</v>
+        <v>560.794590658958</v>
       </c>
       <c r="AD3" t="n">
-        <v>415207.1907262726</v>
+        <v>453108.4624961419</v>
       </c>
       <c r="AE3" t="n">
-        <v>568104.7960001474</v>
+        <v>619962.9881217829</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.690251550838258e-06</v>
+        <v>4.90105407083841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.318055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>513885.6716099815</v>
+        <v>560794.590658958</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.1160928955561</v>
+        <v>422.0173646654253</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.5645843057301</v>
+        <v>577.4227764273659</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.4054380141174</v>
+        <v>522.3143570630939</v>
       </c>
       <c r="AD4" t="n">
-        <v>384116.0928955561</v>
+        <v>422017.3646654253</v>
       </c>
       <c r="AE4" t="n">
-        <v>525564.5843057302</v>
+        <v>577422.7764273658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.793679390567473e-06</v>
+        <v>5.089477132906693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.009722222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>475405.4380141174</v>
+        <v>522314.3570630939</v>
       </c>
     </row>
     <row r="5">
@@ -5464,28 +5464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.1525223224785</v>
+        <v>424.0537940923477</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.3509168885712</v>
+        <v>580.2091090102068</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.9258469258944</v>
+        <v>524.8347659748709</v>
       </c>
       <c r="AD5" t="n">
-        <v>386152.5223224785</v>
+        <v>424053.7940923477</v>
       </c>
       <c r="AE5" t="n">
-        <v>528350.9168885712</v>
+        <v>580209.1090102068</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793840493121569e-06</v>
+        <v>5.089770626772844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.008333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>477925.8469258944</v>
+        <v>524834.765974871</v>
       </c>
     </row>
   </sheetData>
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.2942219216601</v>
+        <v>394.2221309024251</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.2880083236068</v>
+        <v>539.3921113536591</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.5454334941455</v>
+        <v>487.913285287648</v>
       </c>
       <c r="AD2" t="n">
-        <v>350294.2219216601</v>
+        <v>394222.1309024252</v>
       </c>
       <c r="AE2" t="n">
-        <v>479288.0083236068</v>
+        <v>539392.1113536591</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721049932779611e-06</v>
+        <v>5.332381144687145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.927777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>433545.4334941455</v>
+        <v>487913.285287648</v>
       </c>
     </row>
     <row r="3">
@@ -5867,28 +5867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.627735021782</v>
+        <v>391.555644002547</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.6396033100939</v>
+        <v>535.7437063401462</v>
       </c>
       <c r="AC3" t="n">
-        <v>430.2452271345537</v>
+        <v>484.6130789280563</v>
       </c>
       <c r="AD3" t="n">
-        <v>347627.735021782</v>
+        <v>391555.644002547</v>
       </c>
       <c r="AE3" t="n">
-        <v>475639.6033100939</v>
+        <v>535743.7063401463</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.74326187142616e-06</v>
+        <v>5.37590938773736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>430245.2271345537</v>
+        <v>484613.0789280563</v>
       </c>
     </row>
   </sheetData>
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1700.604302195423</v>
+        <v>1781.924702769531</v>
       </c>
       <c r="AB2" t="n">
-        <v>2326.841831630566</v>
+        <v>2438.107991298934</v>
       </c>
       <c r="AC2" t="n">
-        <v>2104.771312962766</v>
+        <v>2205.418386515421</v>
       </c>
       <c r="AD2" t="n">
-        <v>1700604.302195423</v>
+        <v>1781924.702769531</v>
       </c>
       <c r="AE2" t="n">
-        <v>2326841.831630566</v>
+        <v>2438107.991298934</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279483550101669e-06</v>
+        <v>2.201327402985733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2104771.312962766</v>
+        <v>2205418.386515421</v>
       </c>
     </row>
     <row r="3">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.1599184223587</v>
+        <v>753.0384508724392</v>
       </c>
       <c r="AB3" t="n">
-        <v>960.7261774948181</v>
+        <v>1030.340430195454</v>
       </c>
       <c r="AC3" t="n">
-        <v>869.0358195023708</v>
+        <v>932.0061856294749</v>
       </c>
       <c r="AD3" t="n">
-        <v>702159.9184223587</v>
+        <v>753038.4508724392</v>
       </c>
       <c r="AE3" t="n">
-        <v>960726.1774948181</v>
+        <v>1030340.430195454</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.130029774464988e-06</v>
+        <v>3.6646761979337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.751388888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>869035.8195023708</v>
+        <v>932006.1856294749</v>
       </c>
     </row>
     <row r="4">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.544454582755</v>
+        <v>591.332621397391</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.2792110672794</v>
+        <v>809.0873803499858</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.3873003970306</v>
+        <v>731.8692163306528</v>
       </c>
       <c r="AD4" t="n">
-        <v>550544.454582755</v>
+        <v>591332.621397391</v>
       </c>
       <c r="AE4" t="n">
-        <v>753279.2110672795</v>
+        <v>809087.3803499858</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439169750860096e-06</v>
+        <v>4.196545717743345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.516666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>681387.3003970305</v>
+        <v>731869.2163306527</v>
       </c>
     </row>
     <row r="5">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.3678161248286</v>
+        <v>522.0756668657658</v>
       </c>
       <c r="AB5" t="n">
-        <v>644.9462413023817</v>
+        <v>714.3269597586219</v>
       </c>
       <c r="AC5" t="n">
-        <v>583.3934772202164</v>
+        <v>646.152597283443</v>
       </c>
       <c r="AD5" t="n">
-        <v>471367.8161248286</v>
+        <v>522075.6668657658</v>
       </c>
       <c r="AE5" t="n">
-        <v>644946.2413023817</v>
+        <v>714326.9597586219</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608620932889925e-06</v>
+        <v>4.488083291978627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.962499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>583393.4772202164</v>
+        <v>646152.597283443</v>
       </c>
     </row>
     <row r="6">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.706989013578</v>
+        <v>475.4098149736424</v>
       </c>
       <c r="AB6" t="n">
-        <v>594.7852802872239</v>
+        <v>650.4766824477325</v>
       </c>
       <c r="AC6" t="n">
-        <v>538.0198079229945</v>
+        <v>588.3961008246779</v>
       </c>
       <c r="AD6" t="n">
-        <v>434706.989013578</v>
+        <v>475409.8149736424</v>
       </c>
       <c r="AE6" t="n">
-        <v>594785.280287224</v>
+        <v>650476.6824477325</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.693421303773344e-06</v>
+        <v>4.633980736454712e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.712499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>538019.8079229945</v>
+        <v>588396.1008246779</v>
       </c>
     </row>
     <row r="7">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.6321313575199</v>
+        <v>475.3349573175842</v>
       </c>
       <c r="AB7" t="n">
-        <v>594.6828567397187</v>
+        <v>650.3742589002271</v>
       </c>
       <c r="AC7" t="n">
-        <v>537.9271595351106</v>
+        <v>588.303452436794</v>
       </c>
       <c r="AD7" t="n">
-        <v>434632.1313575199</v>
+        <v>475334.9573175842</v>
       </c>
       <c r="AE7" t="n">
-        <v>594682.8567397187</v>
+        <v>650374.2589002271</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.694169102458383e-06</v>
+        <v>4.635267310039157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.709722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>537927.1595351106</v>
+        <v>588303.4524367941</v>
       </c>
     </row>
     <row r="8">
@@ -6800,28 +6800,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>436.689181512705</v>
+        <v>477.3920074727694</v>
       </c>
       <c r="AB8" t="n">
-        <v>597.4974035126909</v>
+        <v>653.1888056731993</v>
       </c>
       <c r="AC8" t="n">
-        <v>540.4730899143117</v>
+        <v>590.849382815995</v>
       </c>
       <c r="AD8" t="n">
-        <v>436689.181512705</v>
+        <v>477392.0074727694</v>
       </c>
       <c r="AE8" t="n">
-        <v>597497.4035126909</v>
+        <v>653188.8056731994</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.693570863510352e-06</v>
+        <v>4.634238051171601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.711111111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>540473.0899143117</v>
+        <v>590849.382815995</v>
       </c>
     </row>
   </sheetData>
@@ -7097,28 +7097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7674105352604</v>
+        <v>391.6841957492745</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.1989576265701</v>
+        <v>535.9195965113217</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.655758863633</v>
+        <v>484.7721823881581</v>
       </c>
       <c r="AD2" t="n">
-        <v>348767.4105352604</v>
+        <v>391684.1957492745</v>
       </c>
       <c r="AE2" t="n">
-        <v>477198.9576265701</v>
+        <v>535919.5965113217</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.674954233002634e-06</v>
+        <v>5.362374760135223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.293055555555554</v>
       </c>
       <c r="AH2" t="n">
-        <v>431655.758863633</v>
+        <v>484772.1823881581</v>
       </c>
     </row>
   </sheetData>
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.571992422028</v>
+        <v>1117.457592396468</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.38490093214</v>
+        <v>1528.954776666494</v>
       </c>
       <c r="AC2" t="n">
-        <v>1310.153078808152</v>
+        <v>1383.03347868295</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058571.992422028</v>
+        <v>1117457.592396468</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448384.90093214</v>
+        <v>1528954.776666494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.652077272876048e-06</v>
+        <v>2.925951611003976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1310153.078808152</v>
+        <v>1383033.47868295</v>
       </c>
     </row>
     <row r="3">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.5615413472243</v>
+        <v>578.5474592142275</v>
       </c>
       <c r="AB3" t="n">
-        <v>724.5694634776272</v>
+        <v>791.5941574094339</v>
       </c>
       <c r="AC3" t="n">
-        <v>655.4175708229508</v>
+        <v>716.0455220356546</v>
       </c>
       <c r="AD3" t="n">
-        <v>529561.5413472243</v>
+        <v>578547.4592142275</v>
       </c>
       <c r="AE3" t="n">
-        <v>724569.4634776273</v>
+        <v>791594.157409434</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.425016202143515e-06</v>
+        <v>4.294883889432285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.905555555555557</v>
       </c>
       <c r="AH3" t="n">
-        <v>655417.5708229508</v>
+        <v>716045.5220356546</v>
       </c>
     </row>
     <row r="4">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.5455214124968</v>
+        <v>466.4460984249284</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.3042032049084</v>
+        <v>638.2121300145175</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.7797318815165</v>
+        <v>577.3020600622815</v>
       </c>
       <c r="AD4" t="n">
-        <v>417545.5214124968</v>
+        <v>466446.0984249284</v>
       </c>
       <c r="AE4" t="n">
-        <v>571304.2032049084</v>
+        <v>638212.1300145175</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.702409694361008e-06</v>
+        <v>4.786168376399917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.991666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>516779.7318815164</v>
+        <v>577302.0600622816</v>
       </c>
     </row>
     <row r="5">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.408990437847</v>
+        <v>438.6659974151067</v>
       </c>
       <c r="AB5" t="n">
-        <v>546.489001398116</v>
+        <v>600.2021702413195</v>
       </c>
       <c r="AC5" t="n">
-        <v>494.3328581068097</v>
+        <v>542.9197175025239</v>
       </c>
       <c r="AD5" t="n">
-        <v>399408.990437847</v>
+        <v>438665.9974151067</v>
       </c>
       <c r="AE5" t="n">
-        <v>546489.001398116</v>
+        <v>600202.1702413196</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.757919490729643e-06</v>
+        <v>4.88448035052965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.830555555555557</v>
       </c>
       <c r="AH5" t="n">
-        <v>494332.8581068097</v>
+        <v>542919.7175025239</v>
       </c>
     </row>
     <row r="6">
@@ -7818,28 +7818,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>401.6441348877748</v>
+        <v>440.9011418650347</v>
       </c>
       <c r="AB6" t="n">
-        <v>549.5472246421213</v>
+        <v>603.2603934853247</v>
       </c>
       <c r="AC6" t="n">
-        <v>497.0992088166504</v>
+        <v>545.6860682123646</v>
       </c>
       <c r="AD6" t="n">
-        <v>401644.1348877748</v>
+        <v>440901.1418650346</v>
       </c>
       <c r="AE6" t="n">
-        <v>549547.2246421212</v>
+        <v>603260.3934853247</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.758074980355326e-06</v>
+        <v>4.884755734210686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.830555555555557</v>
       </c>
       <c r="AH6" t="n">
-        <v>497099.2088166504</v>
+        <v>545686.0682123646</v>
       </c>
     </row>
   </sheetData>
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1335.249424856705</v>
+        <v>1415.181617552739</v>
       </c>
       <c r="AB2" t="n">
-        <v>1826.947170136118</v>
+        <v>1936.313922542295</v>
       </c>
       <c r="AC2" t="n">
-        <v>1652.585896354784</v>
+        <v>1751.514839408516</v>
       </c>
       <c r="AD2" t="n">
-        <v>1335249.424856705</v>
+        <v>1415181.617552739</v>
       </c>
       <c r="AE2" t="n">
-        <v>1826947.170136118</v>
+        <v>1936313.922542295</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.457216798870083e-06</v>
+        <v>2.541258854217971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1652585.896354784</v>
+        <v>1751514.839408516</v>
       </c>
     </row>
     <row r="3">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.3408299528541</v>
+        <v>670.18119622139</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.7776910474116</v>
+        <v>916.9714789777987</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.7715394808173</v>
+        <v>829.4570080017105</v>
       </c>
       <c r="AD3" t="n">
-        <v>620340.8299528541</v>
+        <v>670181.19622139</v>
       </c>
       <c r="AE3" t="n">
-        <v>848777.6910474116</v>
+        <v>916971.4789777987</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266798614781805e-06</v>
+        <v>3.953098849127986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.33472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>767771.5394808173</v>
+        <v>829457.0080017105</v>
       </c>
     </row>
     <row r="4">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.38960263425</v>
+        <v>528.313118063532</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.2362005527934</v>
+        <v>722.8613156643314</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.460675447432</v>
+        <v>653.8724462395554</v>
       </c>
       <c r="AD4" t="n">
-        <v>488389.60263425</v>
+        <v>528313.1180635319</v>
       </c>
       <c r="AE4" t="n">
-        <v>668236.2005527935</v>
+        <v>722861.3156643314</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566621161585394e-06</v>
+        <v>4.475963190487208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.244444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>604460.675447432</v>
+        <v>653872.4462395554</v>
       </c>
     </row>
     <row r="5">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>421.9732748317189</v>
+        <v>461.9820416070215</v>
       </c>
       <c r="AB5" t="n">
-        <v>577.3624507717826</v>
+        <v>632.1042105359699</v>
       </c>
       <c r="AC5" t="n">
-        <v>522.259788803412</v>
+        <v>571.7770718462475</v>
       </c>
       <c r="AD5" t="n">
-        <v>421973.2748317189</v>
+        <v>461982.0416070215</v>
       </c>
       <c r="AE5" t="n">
-        <v>577362.4507717827</v>
+        <v>632104.2105359698</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.71028613192878e-06</v>
+        <v>4.726502354055169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.806944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>522259.7888034119</v>
+        <v>571777.0718462475</v>
       </c>
     </row>
     <row r="6">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.8858988306253</v>
+        <v>456.8946656059279</v>
       </c>
       <c r="AB6" t="n">
-        <v>570.4016784878974</v>
+        <v>625.1434382520846</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.9633428567954</v>
+        <v>565.4806258996309</v>
       </c>
       <c r="AD6" t="n">
-        <v>416885.8988306253</v>
+        <v>456894.6656059279</v>
       </c>
       <c r="AE6" t="n">
-        <v>570401.6784878974</v>
+        <v>625143.4382520845</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729177389959087e-06</v>
+        <v>4.759447058490405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.752777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>515963.3428567954</v>
+        <v>565480.6258996309</v>
       </c>
     </row>
     <row r="7">
@@ -8645,28 +8645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>418.8018183698877</v>
+        <v>458.8105851451903</v>
       </c>
       <c r="AB7" t="n">
-        <v>573.0231241259206</v>
+        <v>627.764883890108</v>
       </c>
       <c r="AC7" t="n">
-        <v>518.3346014023479</v>
+        <v>567.8518844451835</v>
       </c>
       <c r="AD7" t="n">
-        <v>418801.8183698877</v>
+        <v>458810.5851451902</v>
       </c>
       <c r="AE7" t="n">
-        <v>573023.1241259206</v>
+        <v>627764.883890108</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.728872692248921e-06</v>
+        <v>4.758915692289836e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.754166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>518334.6014023479</v>
+        <v>567851.8844451834</v>
       </c>
     </row>
   </sheetData>
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2180.119243449984</v>
+        <v>2273.07082001861</v>
       </c>
       <c r="AB2" t="n">
-        <v>2982.93532896124</v>
+        <v>3110.115776756756</v>
       </c>
       <c r="AC2" t="n">
-        <v>2698.248167741207</v>
+        <v>2813.290692097882</v>
       </c>
       <c r="AD2" t="n">
-        <v>2180119.243449985</v>
+        <v>2273070.82001861</v>
       </c>
       <c r="AE2" t="n">
-        <v>2982935.32896124</v>
+        <v>3110115.776756756</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116261353978494e-06</v>
+        <v>1.897570320003144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.29722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2698248.167741207</v>
+        <v>2813290.692097882</v>
       </c>
     </row>
     <row r="3">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>802.1304783614818</v>
+        <v>853.732353634708</v>
       </c>
       <c r="AB3" t="n">
-        <v>1097.510307993361</v>
+        <v>1168.114270256258</v>
       </c>
       <c r="AC3" t="n">
-        <v>992.7654645638656</v>
+        <v>1056.631083761675</v>
       </c>
       <c r="AD3" t="n">
-        <v>802130.4783614818</v>
+        <v>853732.353634708</v>
       </c>
       <c r="AE3" t="n">
-        <v>1097510.307993361</v>
+        <v>1168114.270256258</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.000917961215304e-06</v>
+        <v>3.401427920469343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.20694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>992765.4645638657</v>
+        <v>1056631.083761675</v>
       </c>
     </row>
     <row r="4">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>611.4108316244744</v>
+        <v>663.0126173891497</v>
       </c>
       <c r="AB4" t="n">
-        <v>836.559273370801</v>
+        <v>907.1631131641494</v>
       </c>
       <c r="AC4" t="n">
-        <v>756.7192304386055</v>
+        <v>820.5847388551883</v>
       </c>
       <c r="AD4" t="n">
-        <v>611410.8316244745</v>
+        <v>663012.6173891497</v>
       </c>
       <c r="AE4" t="n">
-        <v>836559.273370801</v>
+        <v>907163.1131641495</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324870505387958e-06</v>
+        <v>3.952125775161337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.784722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>756719.2304386054</v>
+        <v>820584.7388551884</v>
       </c>
     </row>
     <row r="5">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>536.7363915152422</v>
+        <v>578.000841464619</v>
       </c>
       <c r="AB5" t="n">
-        <v>734.3864100095589</v>
+        <v>790.8462508893466</v>
       </c>
       <c r="AC5" t="n">
-        <v>664.297601756046</v>
+        <v>715.3689946641509</v>
       </c>
       <c r="AD5" t="n">
-        <v>536736.3915152422</v>
+        <v>578000.841464619</v>
       </c>
       <c r="AE5" t="n">
-        <v>734386.4100095589</v>
+        <v>790846.2508893466</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.496478593926083e-06</v>
+        <v>4.243848152113473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.180555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>664297.6017560459</v>
+        <v>715368.994664151</v>
       </c>
     </row>
     <row r="6">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>479.8116020178349</v>
+        <v>521.1613033132323</v>
       </c>
       <c r="AB6" t="n">
-        <v>656.4994016747357</v>
+        <v>713.0758872071727</v>
       </c>
       <c r="AC6" t="n">
-        <v>593.8440201815954</v>
+        <v>645.0209253404126</v>
       </c>
       <c r="AD6" t="n">
-        <v>479811.6020178349</v>
+        <v>521161.3033132323</v>
       </c>
       <c r="AE6" t="n">
-        <v>656499.4016747357</v>
+        <v>713075.8872071727</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.60441375843935e-06</v>
+        <v>4.427330778234182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.841666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>593844.0201815953</v>
+        <v>645020.9253404127</v>
       </c>
     </row>
     <row r="7">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.0433322520791</v>
+        <v>492.3930335474766</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.1373858147399</v>
+        <v>673.7138713471768</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.2386598703414</v>
+        <v>609.4155650291588</v>
       </c>
       <c r="AD7" t="n">
-        <v>451043.3322520791</v>
+        <v>492393.0335474766</v>
       </c>
       <c r="AE7" t="n">
-        <v>617137.3858147399</v>
+        <v>673713.8713471768</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663969264744355e-06</v>
+        <v>4.528571191829397e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>558238.6598703414</v>
+        <v>609415.5650291587</v>
       </c>
     </row>
     <row r="8">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>451.1557078193093</v>
+        <v>492.5054091147067</v>
       </c>
       <c r="AB8" t="n">
-        <v>617.2911430234843</v>
+        <v>673.8676285559212</v>
       </c>
       <c r="AC8" t="n">
-        <v>558.3777427068827</v>
+        <v>609.5546478657002</v>
       </c>
       <c r="AD8" t="n">
-        <v>451155.7078193093</v>
+        <v>492505.4091147067</v>
       </c>
       <c r="AE8" t="n">
-        <v>617291.1430234843</v>
+        <v>673867.6285559213</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.666616176135688e-06</v>
+        <v>4.533070765766962e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.659722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>558377.7427068828</v>
+        <v>609554.6478657002</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>826.2627426367425</v>
+        <v>883.9116208036663</v>
       </c>
       <c r="AB2" t="n">
-        <v>1130.529136615134</v>
+        <v>1209.406875012127</v>
       </c>
       <c r="AC2" t="n">
-        <v>1022.633022524193</v>
+        <v>1093.982780274179</v>
       </c>
       <c r="AD2" t="n">
-        <v>826262.7426367424</v>
+        <v>883911.6208036663</v>
       </c>
       <c r="AE2" t="n">
-        <v>1130529.136615134</v>
+        <v>1209406.875012127</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.869263917341652e-06</v>
+        <v>3.370725185472855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.82083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1022633.022524193</v>
+        <v>1093982.780274179</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.1863410149919</v>
+        <v>490.5336751135873</v>
       </c>
       <c r="AB3" t="n">
-        <v>618.7013008301448</v>
+        <v>671.1698151088247</v>
       </c>
       <c r="AC3" t="n">
-        <v>559.6533170316445</v>
+        <v>607.1143099475895</v>
       </c>
       <c r="AD3" t="n">
-        <v>452186.3410149919</v>
+        <v>490533.6751135873</v>
       </c>
       <c r="AE3" t="n">
-        <v>618701.3008301448</v>
+        <v>671169.8151088246</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.599310905995341e-06</v>
+        <v>4.687172664292849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>559653.3170316445</v>
+        <v>607114.3099475895</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.7068230668257</v>
+        <v>431.5768731634525</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.0046032703509</v>
+        <v>590.502517690117</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.8989007828164</v>
+        <v>534.1457861772602</v>
       </c>
       <c r="AD4" t="n">
-        <v>383706.8230668257</v>
+        <v>431576.8731634525</v>
       </c>
       <c r="AE4" t="n">
-        <v>525004.603270351</v>
+        <v>590502.517690117</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.778919328350977e-06</v>
+        <v>5.011049152326793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>474898.9007828164</v>
+        <v>534145.7861772602</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.7068723104657</v>
+        <v>432.5769224070924</v>
       </c>
       <c r="AB5" t="n">
-        <v>526.3729147645578</v>
+        <v>591.8708291843238</v>
       </c>
       <c r="AC5" t="n">
-        <v>476.1366225484534</v>
+        <v>535.3835079428973</v>
       </c>
       <c r="AD5" t="n">
-        <v>384706.8723104657</v>
+        <v>432576.9224070924</v>
       </c>
       <c r="AE5" t="n">
-        <v>526372.9147645577</v>
+        <v>591870.8291843238</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.782578313040242e-06</v>
+        <v>5.017647167583464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.940277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>476136.6225484534</v>
+        <v>535383.5079428973</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.9720549710764</v>
+        <v>606.145406122437</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.1784698349563</v>
+        <v>829.3548859047347</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.0554720121436</v>
+        <v>750.2024196008792</v>
       </c>
       <c r="AD2" t="n">
-        <v>559972.0549710764</v>
+        <v>606145.406122437</v>
       </c>
       <c r="AE2" t="n">
-        <v>766178.4698349563</v>
+        <v>829354.8859047347</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265492225332168e-06</v>
+        <v>4.226684344332253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.15972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>693055.4720121436</v>
+        <v>750202.4196008792</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.1612943828802</v>
+        <v>405.0829250347646</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.7345251046539</v>
+        <v>554.2523290299467</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.6588090245112</v>
+        <v>501.3552646453574</v>
       </c>
       <c r="AD3" t="n">
-        <v>368161.2943828802</v>
+        <v>405082.9250347646</v>
       </c>
       <c r="AE3" t="n">
-        <v>503734.5251046538</v>
+        <v>554252.3290299467</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.798100813746885e-06</v>
+        <v>5.220361725846689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.225000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>455658.8090245112</v>
+        <v>501355.2646453574</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.8756858428832</v>
+        <v>405.7973164947676</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.7119870169569</v>
+        <v>555.2297909422498</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.5429833437805</v>
+        <v>502.2394389646265</v>
       </c>
       <c r="AD4" t="n">
-        <v>368875.6858428832</v>
+        <v>405797.3164947676</v>
       </c>
       <c r="AE4" t="n">
-        <v>504711.9870169569</v>
+        <v>555229.7909422498</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.803569414685804e-06</v>
+        <v>5.230564387200135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.209722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>456542.9833437805</v>
+        <v>502239.4389646265</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.8081265206716</v>
+        <v>441.6755066151934</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.2445816965962</v>
+        <v>604.3199134990534</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.2528181101371</v>
+        <v>546.6444691230288</v>
       </c>
       <c r="AD2" t="n">
-        <v>405808.1265206716</v>
+        <v>441675.5066151934</v>
       </c>
       <c r="AE2" t="n">
-        <v>555244.5816965962</v>
+        <v>604319.9134990535</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.605827229439103e-06</v>
+        <v>5.011102395686251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.136111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>502252.8181101371</v>
+        <v>546644.4691230288</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.0640106370452</v>
+        <v>390.0166420775876</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.445999555337</v>
+        <v>533.6379760104436</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.2111532820056</v>
+        <v>482.7083165456094</v>
       </c>
       <c r="AD3" t="n">
-        <v>354064.0106370451</v>
+        <v>390016.6420775876</v>
       </c>
       <c r="AE3" t="n">
-        <v>484445.999555337</v>
+        <v>533637.9760104436</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.777080528709524e-06</v>
+        <v>5.340428840873448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.573611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>438211.1532820056</v>
+        <v>482708.3165456094</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.2809633958998</v>
+        <v>397.2060458003925</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.1110880081686</v>
+        <v>543.4748353580925</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.7173280298651</v>
+        <v>491.6063598432374</v>
       </c>
       <c r="AD2" t="n">
-        <v>355280.9633958999</v>
+        <v>397206.0458003925</v>
       </c>
       <c r="AE2" t="n">
-        <v>486111.0880081686</v>
+        <v>543474.8353580924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544779828738836e-06</v>
+        <v>5.248861147774318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>439717.3280298652</v>
+        <v>491606.3598432374</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1186.178424599865</v>
+        <v>1255.550006391177</v>
       </c>
       <c r="AB2" t="n">
-        <v>1622.981651036328</v>
+        <v>1717.898909701393</v>
       </c>
       <c r="AC2" t="n">
-        <v>1468.086560130474</v>
+        <v>1553.945048845754</v>
       </c>
       <c r="AD2" t="n">
-        <v>1186178.424599865</v>
+        <v>1255550.006391177</v>
       </c>
       <c r="AE2" t="n">
-        <v>1622981.651036328</v>
+        <v>1717898.909701393</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550391448653428e-06</v>
+        <v>2.723976615789917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.78472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1468086.560130474</v>
+        <v>1553945.048845754</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.160441554081</v>
+        <v>619.8014349433817</v>
       </c>
       <c r="AB3" t="n">
-        <v>793.8011110065803</v>
+        <v>848.0396669990231</v>
       </c>
       <c r="AC3" t="n">
-        <v>718.0418470789682</v>
+        <v>767.1039514117836</v>
       </c>
       <c r="AD3" t="n">
-        <v>580160.441554081</v>
+        <v>619801.4349433817</v>
       </c>
       <c r="AE3" t="n">
-        <v>793801.1110065803</v>
+        <v>848039.6669990231</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.342205104347209e-06</v>
+        <v>4.115161973556384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.12361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>718041.8470789682</v>
+        <v>767103.9514117836</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.8856329979566</v>
+        <v>498.4412855326856</v>
       </c>
       <c r="AB4" t="n">
-        <v>627.8675676731405</v>
+        <v>681.9893565433854</v>
       </c>
       <c r="AC4" t="n">
-        <v>567.9447682320809</v>
+        <v>616.9012495329574</v>
       </c>
       <c r="AD4" t="n">
-        <v>458885.6329979566</v>
+        <v>498441.2855326856</v>
       </c>
       <c r="AE4" t="n">
-        <v>627867.5676731404</v>
+        <v>681989.3565433854</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631634075656965e-06</v>
+        <v>4.623677258818475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.120833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>567944.768232081</v>
+        <v>616901.2495329574</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.5785705622491</v>
+        <v>447.2194744429987</v>
       </c>
       <c r="AB5" t="n">
-        <v>557.6669813407613</v>
+        <v>611.9054148636556</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.4440273321224</v>
+        <v>553.5060208837111</v>
       </c>
       <c r="AD5" t="n">
-        <v>407578.5705622491</v>
+        <v>447219.4744429986</v>
       </c>
       <c r="AE5" t="n">
-        <v>557666.9813407613</v>
+        <v>611905.4148636556</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.743343503180029e-06</v>
+        <v>4.819946316288054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.790277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>504444.0273321224</v>
+        <v>553506.0208837112</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.84950044097</v>
+        <v>448.4904043217195</v>
       </c>
       <c r="AB6" t="n">
-        <v>559.4059236702963</v>
+        <v>613.6443571931904</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.0170074463474</v>
+        <v>555.0790009979361</v>
       </c>
       <c r="AD6" t="n">
-        <v>408849.50044097</v>
+        <v>448490.4043217195</v>
       </c>
       <c r="AE6" t="n">
-        <v>559405.9236702962</v>
+        <v>613644.3571931905</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.743497372914909e-06</v>
+        <v>4.82021665934242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.790277777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>506017.0074463474</v>
+        <v>555079.0009979361</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1922.442989635249</v>
+        <v>2014.593558386397</v>
       </c>
       <c r="AB2" t="n">
-        <v>2630.371310617906</v>
+        <v>2756.455784179398</v>
       </c>
       <c r="AC2" t="n">
-        <v>2379.332364481853</v>
+        <v>2493.383512847307</v>
       </c>
       <c r="AD2" t="n">
-        <v>1922442.989635249</v>
+        <v>2014593.558386397</v>
       </c>
       <c r="AE2" t="n">
-        <v>2630371.310617906</v>
+        <v>2756455.784179398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196421073725137e-06</v>
+        <v>2.045746704039477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2379332.364481853</v>
+        <v>2493383.512847307</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>745.0908207046234</v>
+        <v>806.4675796299737</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.466131975151</v>
+        <v>1103.444521288315</v>
       </c>
       <c r="AC3" t="n">
-        <v>922.1697151691446</v>
+        <v>998.1333248706702</v>
       </c>
       <c r="AD3" t="n">
-        <v>745090.8207046234</v>
+        <v>806467.5796299736</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019466.131975151</v>
+        <v>1103444.521288315</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065898478152478e-06</v>
+        <v>3.532456168965426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.968055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>922169.7151691447</v>
+        <v>998133.3248706702</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>580.6443431906658</v>
+        <v>631.848536198172</v>
       </c>
       <c r="AB4" t="n">
-        <v>794.4632065739892</v>
+        <v>864.5230424164246</v>
       </c>
       <c r="AC4" t="n">
-        <v>718.6407531746805</v>
+        <v>782.0141766139109</v>
       </c>
       <c r="AD4" t="n">
-        <v>580644.3431906658</v>
+        <v>631848.536198172</v>
       </c>
       <c r="AE4" t="n">
-        <v>794463.2065739891</v>
+        <v>864523.0424164246</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.380980245616341e-06</v>
+        <v>4.071210877861681e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.648611111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>718640.7531746805</v>
+        <v>782014.1766139108</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.3935031870026</v>
+        <v>551.3398789306442</v>
       </c>
       <c r="AB5" t="n">
-        <v>698.3429080326503</v>
+        <v>754.3675457517073</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.6940410204405</v>
+        <v>682.3717659466639</v>
       </c>
       <c r="AD5" t="n">
-        <v>510393.5031870026</v>
+        <v>551339.8789306442</v>
       </c>
       <c r="AE5" t="n">
-        <v>698342.9080326502</v>
+        <v>754367.5457517073</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.551791632024987e-06</v>
+        <v>4.363279312990382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.069444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>631694.0410204405</v>
+        <v>682371.7659466639</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>454.3083146297395</v>
+        <v>495.3399417194017</v>
       </c>
       <c r="AB6" t="n">
-        <v>621.6046787447115</v>
+        <v>677.7459611164179</v>
       </c>
       <c r="AC6" t="n">
-        <v>562.2796006329613</v>
+        <v>613.0628378098969</v>
       </c>
       <c r="AD6" t="n">
-        <v>454308.3146297395</v>
+        <v>495339.9417194017</v>
       </c>
       <c r="AE6" t="n">
-        <v>621604.6787447114</v>
+        <v>677745.9611164179</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.655583273071906e-06</v>
+        <v>4.540751452391501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.754166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>562279.6006329614</v>
+        <v>613062.8378098969</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>442.2716231482212</v>
+        <v>483.3032502378834</v>
       </c>
       <c r="AB7" t="n">
-        <v>605.1355464383475</v>
+        <v>661.276828810054</v>
       </c>
       <c r="AC7" t="n">
-        <v>547.3822591993445</v>
+        <v>598.16549637628</v>
       </c>
       <c r="AD7" t="n">
-        <v>442271.6231482212</v>
+        <v>483303.2502378834</v>
       </c>
       <c r="AE7" t="n">
-        <v>605135.5464383475</v>
+        <v>661276.828810054</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.679603624285622e-06</v>
+        <v>4.581823576081474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.684722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>547382.2591993446</v>
+        <v>598165.49637628</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>444.0786379162864</v>
+        <v>485.1102650059487</v>
       </c>
       <c r="AB8" t="n">
-        <v>607.6079837638796</v>
+        <v>663.749266135586</v>
       </c>
       <c r="AC8" t="n">
-        <v>549.6187305766156</v>
+        <v>600.4019677535508</v>
       </c>
       <c r="AD8" t="n">
-        <v>444078.6379162864</v>
+        <v>485110.2650059487</v>
       </c>
       <c r="AE8" t="n">
-        <v>607607.9837638796</v>
+        <v>663749.2661355861</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.679307076739774e-06</v>
+        <v>4.581316512826042e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.686111111111113</v>
       </c>
       <c r="AH8" t="n">
-        <v>549618.7305766155</v>
+        <v>600401.9677535509</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.2847755275025</v>
+        <v>417.112346327986</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.9034774543297</v>
+        <v>570.7115139439449</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.8116367990602</v>
+        <v>516.2436080517745</v>
       </c>
       <c r="AD2" t="n">
-        <v>368284.7755275025</v>
+        <v>417112.346327986</v>
       </c>
       <c r="AE2" t="n">
-        <v>503903.4774543297</v>
+        <v>570711.5139439448</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273321773294615e-06</v>
+        <v>4.872775630494877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.64027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>455811.6367990602</v>
+        <v>516243.6080517744</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>638.8710711846359</v>
+        <v>695.0551941805406</v>
       </c>
       <c r="AB2" t="n">
-        <v>874.1315845972825</v>
+        <v>951.0051803488504</v>
       </c>
       <c r="AC2" t="n">
-        <v>790.7056930147016</v>
+        <v>860.2425806805091</v>
       </c>
       <c r="AD2" t="n">
-        <v>638871.0711846359</v>
+        <v>695055.1941805406</v>
       </c>
       <c r="AE2" t="n">
-        <v>874131.5845972826</v>
+        <v>951005.1803488504</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121916882121832e-06</v>
+        <v>3.909488700407759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.68888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>790705.6930147016</v>
+        <v>860242.5806805091</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.5883931607886</v>
+        <v>421.0161177150856</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.842562248152</v>
+        <v>576.052826178013</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.7523247283502</v>
+        <v>521.0751529428021</v>
       </c>
       <c r="AD3" t="n">
-        <v>383588.3931607886</v>
+        <v>421016.1177150856</v>
       </c>
       <c r="AE3" t="n">
-        <v>524842.562248152</v>
+        <v>576052.826178013</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767767372255112e-06</v>
+        <v>5.099424656242196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>474752.3247283502</v>
+        <v>521075.1529428021</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.7142984923941</v>
+        <v>415.142023046691</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.8053667760876</v>
+        <v>568.0156307059485</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.4821879118649</v>
+        <v>513.8050161263168</v>
       </c>
       <c r="AD4" t="n">
-        <v>377714.298492394</v>
+        <v>415142.023046691</v>
       </c>
       <c r="AE4" t="n">
-        <v>516805.3667760876</v>
+        <v>568015.6307059486</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.7956916285921e-06</v>
+        <v>5.150873214636049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.112499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>467482.1879118649</v>
+        <v>513805.0161263167</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>937.6292899312865</v>
+        <v>995.8266240306801</v>
       </c>
       <c r="AB2" t="n">
-        <v>1282.905759768843</v>
+        <v>1362.53391976881</v>
       </c>
       <c r="AC2" t="n">
-        <v>1160.467034626047</v>
+        <v>1232.495594794441</v>
       </c>
       <c r="AD2" t="n">
-        <v>937629.2899312865</v>
+        <v>995826.6240306802</v>
       </c>
       <c r="AE2" t="n">
-        <v>1282905.759768843</v>
+        <v>1362533.91976881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.756648687744072e-06</v>
+        <v>3.138124683453979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.43055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1160467.034626047</v>
+        <v>1232495.594794441</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.7579263553196</v>
+        <v>540.2414067052598</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.8448896679157</v>
+        <v>739.1821264228981</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.6295177417428</v>
+        <v>668.6356217257263</v>
       </c>
       <c r="AD3" t="n">
-        <v>491757.9263553196</v>
+        <v>540241.4067052598</v>
       </c>
       <c r="AE3" t="n">
-        <v>672844.8896679158</v>
+        <v>739182.1264228981</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.506286291177682e-06</v>
+        <v>4.477297554724773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.712499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>608629.5177417428</v>
+        <v>668635.6217257263</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>394.3608514704766</v>
+        <v>433.2159084340861</v>
       </c>
       <c r="AB4" t="n">
-        <v>539.5819149547867</v>
+        <v>592.7451180565308</v>
       </c>
       <c r="AC4" t="n">
-        <v>488.0849742994751</v>
+        <v>536.1743559122129</v>
       </c>
       <c r="AD4" t="n">
-        <v>394360.8514704767</v>
+        <v>433215.9084340861</v>
       </c>
       <c r="AE4" t="n">
-        <v>539581.9149547868</v>
+        <v>592745.1180565308</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.759886428413088e-06</v>
+        <v>4.930335692593856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.912500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>488084.9742994751</v>
+        <v>536174.355912213</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.4243831176032</v>
+        <v>432.2794400812126</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.3005976403172</v>
+        <v>591.4638007420614</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.9259441111584</v>
+        <v>535.0153257238962</v>
       </c>
       <c r="AD5" t="n">
-        <v>393424.3831176031</v>
+        <v>432279.4400812126</v>
       </c>
       <c r="AE5" t="n">
-        <v>538300.5976403172</v>
+        <v>591463.8007420613</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.770105900775333e-06</v>
+        <v>4.948592034169485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.883333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>486925.9441111584</v>
+        <v>535015.3257238963</v>
       </c>
     </row>
   </sheetData>
